--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395" activeTab="7"/>
+    <workbookView windowWidth="19005" windowHeight="13500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="伊萝莲" sheetId="3" r:id="rId1"/>
     <sheet name="阿斯塔拉" sheetId="4" r:id="rId2"/>
     <sheet name="丹巴瓦尔" sheetId="1" r:id="rId3"/>
-    <sheet name="尤瑞艾莉" sheetId="2" r:id="rId4"/>
-    <sheet name="帝国" sheetId="5" r:id="rId5"/>
-    <sheet name="隐秘" sheetId="7" r:id="rId6"/>
-    <sheet name="蛮石" sheetId="8" r:id="rId7"/>
-    <sheet name="炼狱" sheetId="6" r:id="rId8"/>
+    <sheet name="洛" sheetId="2" r:id="rId4"/>
+    <sheet name="塞莱斯塔" sheetId="9" r:id="rId5"/>
+    <sheet name="帝国" sheetId="5" r:id="rId6"/>
+    <sheet name="隐秘" sheetId="7" r:id="rId7"/>
+    <sheet name="蛮石" sheetId="8" r:id="rId8"/>
+    <sheet name="禅意" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="88">
   <si>
     <t>名称</t>
   </si>
@@ -66,12 +67,12 @@
     <t>沉重否定</t>
   </si>
   <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
     <t>增援战线</t>
   </si>
   <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
     <t>全数否定</t>
   </si>
   <si>
@@ -105,196 +106,199 @@
     <t>边境高墙</t>
   </si>
   <si>
+    <t>冲锋装备</t>
+  </si>
+  <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>禁卫指挥官</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>花光春影·安娜贝尔</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>百花长枪·卡罗琳</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>白袍·伊恩</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>白袍主教</t>
+  </si>
+  <si>
+    <t>学仆-塑钢型</t>
+  </si>
+  <si>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
+    <t>蓄力射手</t>
+  </si>
+  <si>
+    <t>旷野祭师</t>
+  </si>
+  <si>
+    <t>势如破竹</t>
+  </si>
+  <si>
+    <t>天降碎石</t>
+  </si>
+  <si>
+    <t>强行捕猎</t>
+  </si>
+  <si>
+    <t>无畏猎户</t>
+  </si>
+  <si>
     <t>圣殿骑士</t>
   </si>
   <si>
-    <t>冲锋装备</t>
-  </si>
-  <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
+    <t>活力仙人掌</t>
+  </si>
+  <si>
+    <t>飞斧狂人</t>
+  </si>
+  <si>
+    <t>石斧头领</t>
+  </si>
+  <si>
+    <t>飞斧女豪</t>
+  </si>
+  <si>
+    <t>精灵王·大羽</t>
+  </si>
+  <si>
+    <t>永恒之王·莱哈特</t>
+  </si>
+  <si>
+    <t>热血摇滚·凯</t>
+  </si>
+  <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>叶幻师</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
+    <t>风卷残云</t>
+  </si>
+  <si>
+    <t>蟠桃隐士</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>墨轩隐士</t>
   </si>
   <si>
     <t>米拉方舟</t>
   </si>
   <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>百花长枪·卡罗琳</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>白袍·伊恩</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
-    <t>旷野祭师</t>
-  </si>
-  <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
-    <t>迅捷长矛手</t>
-  </si>
-  <si>
-    <t>天降碎石</t>
-  </si>
-  <si>
-    <t>强行捕猎</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
-    <t>地洞巨獾</t>
-  </si>
-  <si>
-    <t>飞斧狂人</t>
-  </si>
-  <si>
-    <t>石斧头领</t>
-  </si>
-  <si>
-    <t>飞斧女豪</t>
-  </si>
-  <si>
-    <t>精灵王·大羽</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>贪食白龙</t>
+  </si>
+  <si>
+    <t>蛮铁巨象·鲁玛</t>
+  </si>
+  <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡罗琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
+    <t>旷野游侠·大羽</t>
   </si>
   <si>
     <t>血饮烈斧·凯</t>
   </si>
   <si>
-    <t>白象战歌·鲁玛</t>
-  </si>
-  <si>
-    <t>落雷击</t>
-  </si>
-  <si>
-    <t>地狱刀吏</t>
-  </si>
-  <si>
-    <t>嗜血妖蛾</t>
-  </si>
-  <si>
-    <t>猩红勇士</t>
-  </si>
-  <si>
-    <t>地狱双头犬</t>
-  </si>
-  <si>
-    <t>烈焰风暴</t>
-  </si>
-  <si>
-    <t>绝望镰魔</t>
-  </si>
-  <si>
-    <t>岩浆球</t>
-  </si>
-  <si>
-    <t>雷光炼狱</t>
-  </si>
-  <si>
-    <t>地狱三头犬</t>
-  </si>
-  <si>
-    <t>恶灵魔焰</t>
-  </si>
-  <si>
-    <t>恶魔之心</t>
-  </si>
-  <si>
-    <t>岩魔</t>
-  </si>
-  <si>
-    <t>上古蛮王</t>
-  </si>
-  <si>
-    <t>怨魂饕餮兽</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡罗琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>旷野游侠·大羽</t>
-  </si>
-  <si>
     <t>原野大祭师·鲁玛</t>
   </si>
   <si>
-    <t>港口卡等：</t>
-  </si>
-  <si>
-    <t>痛苦之心</t>
-  </si>
-  <si>
-    <t>血影</t>
-  </si>
-  <si>
-    <t>巴克&amp;巴罗</t>
+    <t>蛮石卡等：</t>
+  </si>
+  <si>
+    <t>神机玄女·轩</t>
+  </si>
+  <si>
+    <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>禅意卡等：</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1274,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1305,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1347,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1361,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1394,7 +1398,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1403,12 +1407,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1417,28 +1421,36 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -1447,49 +1459,41 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>12</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.5454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1498,12 +1502,12 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -1512,21 +1516,21 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1554,12 +1558,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -1568,12 +1572,12 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -1582,12 +1586,12 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -1596,12 +1600,12 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -1610,32 +1614,32 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="2">
         <v>14</v>
@@ -1643,7 +1647,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
@@ -1652,21 +1656,21 @@
         <v>6</v>
       </c>
       <c r="D30" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="5"/>
     </row>
@@ -1687,82 +1691,82 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <f>AVERAGE(D17:D31)</f>
-        <v>15.2</v>
+        <f>AVERAGE(D18:D31)</f>
+        <v>16.6428571428571</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="C37" s="3">
         <v>3</v>
       </c>
       <c r="D37" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1782,23 +1786,23 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D37:D41)</f>
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D31,D37:D41)</f>
-        <v>15.7666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
+        <v>17.1666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1813,8 +1817,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1848,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1890,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1904,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1937,7 +1941,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1946,12 +1950,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1960,28 +1964,36 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -1990,49 +2002,41 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>12</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>18.5454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -2041,12 +2045,12 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -2055,21 +2059,21 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2097,12 +2101,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2111,40 +2115,40 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -2153,73 +2157,80 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
         <v>14</v>
       </c>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2">
-        <v>13</v>
-      </c>
-      <c r="F30" s="5"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>16</v>
+      </c>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
@@ -2228,86 +2239,78 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <f>AVERAGE(D17:D31)</f>
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3</v>
-      </c>
-      <c r="D37" s="3">
-        <v>14</v>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <f>AVERAGE(D18:D32)</f>
+        <v>16.2666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2327,23 +2330,23 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D37:D41)</f>
-        <v>14.4</v>
+        <f>AVERAGE(D38:D41)</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D31,D37:D41)</f>
-        <v>15.7666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2357,8 +2360,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2383,7 +2386,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2392,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2406,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2425,7 +2428,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2434,12 +2437,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2453,7 +2456,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2467,21 +2470,21 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -2490,12 +2493,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2504,12 +2507,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2518,42 +2521,50 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>14</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -2562,49 +2573,41 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <f>AVERAGE(D2:D13)</f>
-        <v>15.9166666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>14</v>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <f>AVERAGE(D2:D14)</f>
+        <v>17.1538461538462</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -2613,12 +2616,12 @@
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
@@ -2627,12 +2630,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -2641,12 +2644,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -2683,27 +2686,26 @@
         <v>4</v>
       </c>
       <c r="D26" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
         <v>14</v>
       </c>
-      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -2712,15 +2714,24 @@
         <v>5</v>
       </c>
       <c r="D28" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2"/>
@@ -2729,128 +2740,120 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <f>AVERAGE(D19:D28)</f>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3</v>
-      </c>
-      <c r="D34" s="3">
-        <v>14</v>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
+        <f>AVERAGE(D20:D29)</f>
+        <v>15.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3">
         <v>4</v>
       </c>
       <c r="D37" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2870,23 +2873,23 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D34:D41)</f>
-        <v>13.375</v>
+        <f>AVERAGE(D35:D41)</f>
+        <v>14.8571428571429</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D13,D19:D28,D34:D41)</f>
-        <v>14.7333333333333</v>
+        <f>AVERAGE(D2:D14,D20:D29,D35:D41)</f>
+        <v>16.0666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -2901,8 +2904,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2927,21 +2930,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -2950,12 +2953,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2964,12 +2967,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2983,49 +2986,49 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
         <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3034,26 +3037,26 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3066,10 +3069,18 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -3078,49 +3089,41 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <f>AVERAGE(D2:D11)</f>
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>12</v>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>14.2727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -3129,35 +3132,35 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3171,12 +3174,12 @@
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -3185,12 +3188,12 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -3199,94 +3202,92 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>11</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>15</v>
-      </c>
-      <c r="F25" s="5"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
         <v>11</v>
@@ -3295,112 +3296,114 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>14</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>15</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2">
-        <v>14</v>
-      </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <f>AVERAGE(D17:D31)</f>
-        <v>14.0666666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>12</v>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <f>AVERAGE(D18:D33)</f>
+        <v>14.8125</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3420,23 +3423,23 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D37:D41)</f>
-        <v>11</v>
+        <f>AVERAGE(D39:D41)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D11,D17:D31,D37:D41)</f>
-        <v>13.5666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
+        <v>14.4333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3449,10 +3452,565 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>16.1818181818182</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>18</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>18</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>16</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>14</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <f>AVERAGE(D18:D32)</f>
+        <v>16.5333333333333</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <f>AVERAGE(D38:D41)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4">
+        <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3481,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3503,262 +4061,284 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>17.5</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>18.625</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C13:C20)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15</v>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2">
+        <f>AVERAGE(C15:C22)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B32" s="3">
         <v>6</v>
       </c>
-      <c r="C30" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3">
+        <f>AVERAGE(C28:C32)</f>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C26:C30)</f>
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C7,C13:C20,C26:C30)</f>
-        <v>15.4736842105263</v>
+      <c r="C38" s="4">
+        <f>AVERAGE(C2:C9,C15:C22,C28:C32)</f>
+        <v>16.952380952381</v>
       </c>
     </row>
   </sheetData>
@@ -3767,13 +4347,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3813,7 +4393,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3835,7 +4415,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3857,7 +4437,7 @@
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>17</v>
+        <v>17.75</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -3869,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3880,7 +4460,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3924,18 +4504,18 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3946,7 +4526,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3957,24 +4537,30 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="2">
         <v>7</v>
       </c>
-      <c r="C20" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
@@ -3982,32 +4568,32 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C11:C20)</f>
-        <v>15.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C11:C21)</f>
+        <v>16.1818181818182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -4015,27 +4601,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C27:C27)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C26:C26)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
-        <v>15.9333333333333</v>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C5,C11:C21,C27:C27)</f>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>
@@ -4044,13 +4635,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4073,29 +4664,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4106,32 +4697,32 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
         <v>13</v>
@@ -4139,180 +4730,213 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>14.5714285714286</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C14:C18)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C15:C21)</f>
+        <v>14.8571428571429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="3">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
         <v>14</v>
       </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C27:C29)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>11.3333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
-        <v>13.7333333333333</v>
+      <c r="B35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C9,C15:C21,C27:C29)</f>
+        <v>14.6111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -4321,13 +4945,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4350,62 +4974,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -4415,45 +5039,45 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>13.5</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>11</v>
-      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>12.2857142857143</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
         <v>11</v>
@@ -4461,98 +5085,98 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C13:C17)</f>
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3">
-        <v>12</v>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>11.3333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3">
         <v>11</v>
@@ -4573,23 +5197,23 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3">
-        <f>AVERAGE(C23:C26)</f>
-        <v>10.25</v>
+        <f>AVERAGE(C25:C26)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C7,C13:C17,C23:C26)</f>
-        <v>11.7333333333333</v>
+        <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
+        <v>11.8666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="13500" activeTab="5"/>
+    <workbookView windowWidth="10500" windowHeight="13050" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="伊萝莲" sheetId="3" r:id="rId1"/>
-    <sheet name="阿斯塔拉" sheetId="4" r:id="rId2"/>
-    <sheet name="丹巴瓦尔" sheetId="1" r:id="rId3"/>
+    <sheet name="阿斯塔拉" sheetId="4" r:id="rId1"/>
+    <sheet name="伊萝莲" sheetId="3" r:id="rId2"/>
+    <sheet name="喵喵" sheetId="1" r:id="rId3"/>
     <sheet name="洛" sheetId="2" r:id="rId4"/>
     <sheet name="塞莱斯塔" sheetId="9" r:id="rId5"/>
     <sheet name="帝国" sheetId="5" r:id="rId6"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="84">
   <si>
     <t>名称</t>
   </si>
@@ -106,69 +106,63 @@
     <t>边境高墙</t>
   </si>
   <si>
+    <t>幻域秘树</t>
+  </si>
+  <si>
+    <t>学仆-塑钢型</t>
+  </si>
+  <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>观星台大预言家</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>米拉方舟</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>花光春影·安娜贝尔</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>明日香·露娜</t>
+  </si>
+  <si>
+    <t>月之神·米拉</t>
+  </si>
+  <si>
+    <t>白袍·伊恩</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
     <t>冲锋装备</t>
   </si>
   <si>
-    <t>幻域秘树</t>
-  </si>
-  <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>观星台大预言家</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
-  </si>
-  <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
-    <t>紫色卡等：</t>
-  </si>
-  <si>
-    <t>花光春影·安娜贝尔</t>
-  </si>
-  <si>
-    <t>橙色</t>
-  </si>
-  <si>
-    <t>百花长枪·卡罗琳</t>
-  </si>
-  <si>
-    <t>明日香·露娜</t>
-  </si>
-  <si>
-    <t>月之神·米拉</t>
-  </si>
-  <si>
-    <t>白袍·伊恩</t>
-  </si>
-  <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>白袍主教</t>
-  </si>
-  <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
     <t>愚笨鲸头鹅</t>
   </si>
   <si>
     <t>蓄力射手</t>
   </si>
   <si>
+    <t>势如破竹</t>
+  </si>
+  <si>
     <t>旷野祭师</t>
   </si>
   <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
     <t>天降碎石</t>
   </si>
   <si>
@@ -178,84 +172,72 @@
     <t>无畏猎户</t>
   </si>
   <si>
+    <t>诱敌草人</t>
+  </si>
+  <si>
+    <t>飞斧狂人</t>
+  </si>
+  <si>
+    <t>飞斧女豪</t>
+  </si>
+  <si>
+    <t>精灵王子·大羽</t>
+  </si>
+  <si>
+    <t>热血摇滚·凯</t>
+  </si>
+  <si>
+    <t>白象战歌·鲁玛</t>
+  </si>
+  <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
+    <t>连击</t>
+  </si>
+  <si>
+    <t>叶幻师</t>
+  </si>
+  <si>
+    <t>铁山靠</t>
+  </si>
+  <si>
+    <t>风铃道人</t>
+  </si>
+  <si>
+    <t>蟠桃隐士</t>
+  </si>
+  <si>
+    <t>驱魔道人</t>
+  </si>
+  <si>
+    <t>扫叶僧</t>
+  </si>
+  <si>
+    <t>御风武者</t>
+  </si>
+  <si>
+    <t>蟠桃会</t>
+  </si>
+  <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
+    <t>万物之灵</t>
+  </si>
+  <si>
+    <t>九天玄女·轩</t>
+  </si>
+  <si>
+    <t>上宝沁金耙</t>
+  </si>
+  <si>
+    <t>贪食白龙</t>
+  </si>
+  <si>
     <t>圣殿骑士</t>
   </si>
   <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
-    <t>飞斧狂人</t>
-  </si>
-  <si>
-    <t>石斧头领</t>
-  </si>
-  <si>
-    <t>飞斧女豪</t>
-  </si>
-  <si>
-    <t>精灵王·大羽</t>
-  </si>
-  <si>
-    <t>永恒之王·莱哈特</t>
-  </si>
-  <si>
-    <t>热血摇滚·凯</t>
-  </si>
-  <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
-    <t>连击</t>
-  </si>
-  <si>
-    <t>叶幻师</t>
-  </si>
-  <si>
-    <t>铁山靠</t>
-  </si>
-  <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
-    <t>风卷残云</t>
-  </si>
-  <si>
-    <t>蟠桃隐士</t>
-  </si>
-  <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
-    <t>御风武者</t>
-  </si>
-  <si>
-    <t>蟠桃会</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>米拉方舟</t>
-  </si>
-  <si>
-    <t>九天玄女·轩</t>
-  </si>
-  <si>
-    <t>上宝沁金耙</t>
-  </si>
-  <si>
-    <t>贪食白龙</t>
-  </si>
-  <si>
-    <t>蛮铁巨象·鲁玛</t>
-  </si>
-  <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
     <t>曙光·安娜贝尔</t>
   </si>
   <si>
@@ -265,16 +247,22 @@
     <t>明日之音·露娜</t>
   </si>
   <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
     <t>帝国卡等：</t>
   </si>
   <si>
+    <t>学仆-能源型</t>
+  </si>
+  <si>
     <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>No.6迪宁</t>
   </si>
   <si>
     <t>隐秘卡等：</t>
@@ -1274,8 +1262,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1323,18 +1311,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1342,7 +1330,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1351,12 +1339,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1365,12 +1353,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1379,21 +1367,21 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1474,7 +1462,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>18.5454545454545</v>
+        <v>19.0909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1488,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1516,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1535,16 +1523,16 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1577,7 +1565,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -1586,12 +1574,12 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -1600,12 +1588,12 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -1614,12 +1602,12 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -1628,32 +1616,32 @@
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2">
         <v>16</v>
@@ -1661,7 +1649,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
@@ -1670,15 +1658,24 @@
         <v>6</v>
       </c>
       <c r="D31" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>16</v>
+      </c>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2"/>
@@ -1687,49 +1684,41 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <f>AVERAGE(D18:D31)</f>
-        <v>16.6428571428571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="3">
-        <v>3</v>
-      </c>
-      <c r="D37" s="3">
-        <v>16</v>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <f>AVERAGE(D18:D32)</f>
+        <v>17.2666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -1738,12 +1727,12 @@
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
@@ -1752,12 +1741,12 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
@@ -1766,7 +1755,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1786,28 +1775,27 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D37:D41)</f>
-        <v>15.6</v>
+        <f>AVERAGE(D38:D41)</f>
+        <v>16.75</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D12,D18:D31,D37:D41)</f>
-        <v>17.1666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
+        <v>17.8666666666667</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1818,7 +1806,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1866,18 +1854,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1885,7 +1873,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1894,12 +1882,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1908,12 +1896,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1922,21 +1910,21 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2017,7 +2005,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>18.5454545454545</v>
+        <v>19.0909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2031,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2059,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2078,16 +2066,16 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2120,7 +2108,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -2129,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2143,18 +2131,18 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2">
         <v>17</v>
@@ -2162,7 +2150,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -2171,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2185,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2199,33 +2187,32 @@
         <v>5</v>
       </c>
       <c r="D30" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="2">
-        <v>9</v>
-      </c>
-      <c r="F31" s="5"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2">
         <v>16</v>
@@ -2254,7 +2241,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f>AVERAGE(D18:D32)</f>
-        <v>16.2666666666667</v>
+        <v>17.2666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2268,12 +2255,12 @@
         <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -2282,12 +2269,12 @@
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
@@ -2296,12 +2283,12 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
@@ -2310,7 +2297,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2330,27 +2317,28 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D38:D41)</f>
-        <v>15.5</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
-        <v>17</v>
+        <v>17.8666666666667</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2360,8 +2348,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2386,7 +2374,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2395,18 +2383,18 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -2414,21 +2402,21 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2442,7 +2430,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2451,12 +2439,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2470,7 +2458,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2479,26 +2467,26 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2512,7 +2500,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2521,79 +2509,79 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <f>AVERAGE(D2:D14)</f>
-        <v>17.1538461538462</v>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D12)</f>
+        <v>17.2727272727273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -2602,54 +2590,54 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2658,40 +2646,41 @@
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -2700,115 +2689,119 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4">
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>16</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>16</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <f>AVERAGE(D20:D29)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="3">
-        <v>3</v>
-      </c>
-      <c r="D35" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3</v>
-      </c>
-      <c r="D36" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>16</v>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
+        <f>AVERAGE(D18:D32)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="3">
         <v>14</v>
@@ -2816,7 +2809,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -2830,7 +2823,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
@@ -2839,21 +2832,21 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2873,23 +2866,23 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D35:D41)</f>
-        <v>14.8571428571429</v>
+        <f>AVERAGE(D38:D41)</f>
+        <v>14.75</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D14,D20:D29,D35:D41)</f>
-        <v>16.0666666666667</v>
+        <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>
@@ -2904,8 +2897,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G37" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2953,12 +2946,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2967,12 +2960,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2981,26 +2974,26 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3009,12 +3002,12 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3023,12 +3016,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3037,12 +3030,12 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3051,12 +3044,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3065,22 +3058,14 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>12</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -3089,41 +3074,49 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f>AVERAGE(D2:D12)</f>
-        <v>14.2727272727273</v>
+      <c r="D14" s="1">
+        <f>AVERAGE(D2:D11)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -3132,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3151,7 +3144,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -3160,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3207,7 +3200,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -3216,12 +3209,12 @@
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -3230,13 +3223,13 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -3245,13 +3238,13 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -3260,13 +3253,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -3275,13 +3268,13 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>17</v>
@@ -3290,28 +3283,28 @@
         <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -3320,13 +3313,13 @@
         <v>5</v>
       </c>
       <c r="D32" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
@@ -3335,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="D33" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -3360,13 +3353,13 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <f>AVERAGE(D18:D33)</f>
-        <v>14.8125</v>
+        <f>AVERAGE(D17:D33)</f>
+        <v>15.3529411764706</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
@@ -3375,12 +3368,12 @@
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
@@ -3394,7 +3387,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
@@ -3403,7 +3396,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3423,23 +3416,23 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D39:D41)</f>
-        <v>13</v>
+        <v>13.6666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>14.4333333333333</v>
+        <f>AVERAGE(D2:D11,D17:D33,D39:D41)</f>
+        <v>15.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -3454,8 +3447,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3480,7 +3473,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3489,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3508,7 +3501,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3531,12 +3524,12 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3545,12 +3538,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3559,12 +3552,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3573,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3587,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3606,7 +3599,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3615,12 +3608,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -3629,7 +3622,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3654,11 +3647,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>16.1818181818182</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
+        <v>17.2727272727273</v>
+      </c>
+    </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>16</v>
@@ -3670,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3689,7 +3680,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -3698,7 +3689,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3717,30 +3708,30 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3757,39 +3748,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>18</v>
-      </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
-      </c>
-      <c r="F26" s="5"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -3798,13 +3787,13 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -3813,22 +3802,22 @@
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F29" s="5"/>
     </row>
@@ -3843,28 +3832,28 @@
         <v>5</v>
       </c>
       <c r="D30" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>17</v>
@@ -3873,15 +3862,24 @@
         <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2">
+        <v>13</v>
+      </c>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2"/>
@@ -3890,51 +3888,41 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <f>AVERAGE(D18:D32)</f>
-        <v>16.5333333333333</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1"/>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>13</v>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
+        <f>AVERAGE(D18:D33)</f>
+        <v>16.75</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>31</v>
@@ -3943,18 +3931,18 @@
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41" s="3">
         <v>14</v>
@@ -3977,25 +3965,23 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
-        <f>AVERAGE(D38:D41)</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1"/>
-    <row r="46" customFormat="1"/>
+        <f>AVERAGE(D39:D41)</f>
+        <v>14.6666666666667</v>
+      </c>
+    </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
-        <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
-        <v>16</v>
+        <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
+        <v>16.7333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -4007,10 +3993,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4050,29 +4036,29 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4088,7 +4074,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -4099,63 +4085,63 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>17</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>18.625</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.4285714285714</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -4166,7 +4152,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -4177,168 +4163,135 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>14</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>16</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+        <f>AVERAGE(C14:C19)</f>
+        <v>17.1666666666667</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C15:C22)</f>
+      <c r="A25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C29" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="3">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3">
-        <v>14</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3">
-        <v>16</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="3">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C32" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+        <f>AVERAGE(C25:C29)</f>
+        <v>16.8</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="3">
-        <f>AVERAGE(C28:C32)</f>
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="4">
-        <f>AVERAGE(C2:C9,C15:C22,C28:C32)</f>
-        <v>16.952380952381</v>
+      <c r="B35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C29)</f>
+        <v>17.9444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -4350,10 +4303,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4393,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4404,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4419,81 +4372,81 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>17.75</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>13</v>
-      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>18.2</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4509,63 +4462,69 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
         <v>7</v>
       </c>
-      <c r="C21" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
@@ -4573,60 +4532,76 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C11:C21)</f>
-        <v>16.1818181818182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15</v>
+      <c r="C25" s="2">
+        <f>AVERAGE(C12:C22)</f>
+        <v>17.2727272727273</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C28:C29)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C27:C27)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C5,C11:C21,C27:C27)</f>
-        <v>16.5</v>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C6,C12:C22,C28:C29)</f>
+        <v>17.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -4638,10 +4613,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4664,18 +4639,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4686,7 +4661,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -4697,107 +4672,107 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>13</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>15</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>16.5714285714286</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -4808,135 +4783,113 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>13</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="2">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2">
-        <v>12</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C15:C21)</f>
-        <v>14.8571428571429</v>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>15.8333333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>12</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="3">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3">
-        <v>14</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C25:C27)</f>
+        <v>14.3333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C27:C29)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C9,C15:C21,C27:C29)</f>
-        <v>14.6111111111111</v>
+      <c r="B33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C27)</f>
+        <v>15.875</v>
       </c>
     </row>
   </sheetData>
@@ -4951,7 +4904,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4974,168 +4927,168 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>12</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>12.2857142857143</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>13.5</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5156,24 +5109,24 @@
         <v>29</v>
       </c>
       <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>11.3333333333333</v>
+        <f>AVERAGE(C13:C19)</f>
+        <v>12.5714285714286</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -5197,23 +5150,23 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
-        <v>11.8666666666667</v>
+        <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
+        <v>12.9333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10500" windowHeight="13050" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="14490" windowHeight="11325" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="阿斯塔拉" sheetId="4" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="喵喵" sheetId="1" r:id="rId3"/>
     <sheet name="洛" sheetId="2" r:id="rId4"/>
     <sheet name="塞莱斯塔" sheetId="9" r:id="rId5"/>
-    <sheet name="帝国" sheetId="5" r:id="rId6"/>
-    <sheet name="隐秘" sheetId="7" r:id="rId7"/>
+    <sheet name="隐秘" sheetId="7" r:id="rId6"/>
+    <sheet name="帝国" sheetId="5" r:id="rId7"/>
     <sheet name="蛮石" sheetId="8" r:id="rId8"/>
     <sheet name="禅意" sheetId="6" r:id="rId9"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="85">
   <si>
     <t>名称</t>
   </si>
@@ -70,6 +70,9 @@
     <t>圣殿弩手</t>
   </si>
   <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
     <t>增援战线</t>
   </si>
   <si>
@@ -196,7 +199,7 @@
     <t>连击</t>
   </si>
   <si>
-    <t>叶幻师</t>
+    <t>执剑道者</t>
   </si>
   <si>
     <t>铁山靠</t>
@@ -205,6 +208,9 @@
     <t>风铃道人</t>
   </si>
   <si>
+    <t>风卷残云</t>
+  </si>
+  <si>
     <t>蟠桃隐士</t>
   </si>
   <si>
@@ -235,6 +241,12 @@
     <t>贪食白龙</t>
   </si>
   <si>
+    <t>No.2时光·米拉</t>
+  </si>
+  <si>
+    <t>隐秘卡等：</t>
+  </si>
+  <si>
     <t>圣殿骑士</t>
   </si>
   <si>
@@ -247,6 +259,9 @@
     <t>明日之音·露娜</t>
   </si>
   <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
@@ -254,18 +269,6 @@
   </si>
   <si>
     <t>帝国卡等：</t>
-  </si>
-  <si>
-    <t>学仆-能源型</t>
-  </si>
-  <si>
-    <t>No.2时光·米拉</t>
-  </si>
-  <si>
-    <t>No.6迪宁</t>
-  </si>
-  <si>
-    <t>隐秘卡等：</t>
   </si>
   <si>
     <t>旷野游侠·大羽</t>
@@ -1262,8 +1265,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1316,13 +1319,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1344,7 +1347,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1358,7 +1361,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1367,26 +1370,26 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1400,7 +1403,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1414,7 +1417,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1428,7 +1431,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -1437,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1454,37 +1457,37 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>19.0909090909091</v>
+        <v>19.4545454545455</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -1495,24 +1498,24 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -1523,10 +1526,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -1537,10 +1540,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -1551,10 +1554,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -1565,10 +1568,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -1579,24 +1582,24 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -1607,38 +1610,38 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -1649,10 +1652,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>6</v>
@@ -1664,16 +1667,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -1691,37 +1694,37 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f>AVERAGE(D18:D32)</f>
-        <v>17.2666666666667</v>
+        <v>17.6666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -1732,24 +1735,24 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
@@ -1772,26 +1775,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D38:D41)</f>
-        <v>16.75</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
-        <v>17.8666666666667</v>
+        <v>18.2666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1805,8 +1808,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1859,13 +1862,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -1873,7 +1876,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -1887,7 +1890,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1901,7 +1904,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1910,26 +1913,26 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1957,7 +1960,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -1971,7 +1974,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -1980,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1997,37 +2000,37 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>19.0909090909091</v>
+        <v>19.4545454545455</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -2038,24 +2041,24 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -2066,10 +2069,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -2080,10 +2083,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -2094,10 +2097,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2108,10 +2111,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -2122,24 +2125,24 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -2150,10 +2153,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -2164,24 +2167,24 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -2192,10 +2195,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>6</v>
@@ -2206,16 +2209,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -2233,37 +2236,37 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f>AVERAGE(D18:D32)</f>
-        <v>17.2666666666667</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
@@ -2274,24 +2277,24 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>6</v>
@@ -2314,26 +2317,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D38:D41)</f>
-        <v>16.75</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
-        <v>17.8666666666667</v>
+        <v>18.2333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2348,8 +2351,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2374,7 +2377,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2383,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2402,7 +2405,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2430,7 +2433,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2444,7 +2447,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -2453,12 +2456,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -2467,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2481,12 +2484,12 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2500,7 +2503,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -2509,12 +2512,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -2523,7 +2526,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2540,37 +2543,37 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.2727272727273</v>
+        <v>18.4545454545455</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -2581,38 +2584,38 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -2623,10 +2626,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -2637,10 +2640,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2651,10 +2654,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -2665,10 +2668,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -2680,10 +2683,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -2695,25 +2698,25 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -2725,10 +2728,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -2740,31 +2743,31 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" s="5"/>
     </row>
@@ -2782,51 +2785,51 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <f>AVERAGE(D18:D32)</f>
-        <v>17</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3">
         <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
@@ -2837,10 +2840,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>7</v>
@@ -2863,26 +2866,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D38:D41)</f>
-        <v>14.75</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D32,D38:D41)</f>
-        <v>16.8</v>
+        <v>17.6333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2897,8 +2900,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2951,7 +2954,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -2960,12 +2963,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -2974,26 +2977,26 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3002,12 +3005,12 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3016,12 +3019,12 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -3035,21 +3038,21 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3075,37 +3078,37 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
         <f>AVERAGE(D2:D11)</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -3116,10 +3119,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -3130,10 +3133,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
@@ -3144,10 +3147,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -3158,10 +3161,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -3172,10 +3175,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -3186,10 +3189,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -3200,24 +3203,24 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -3229,10 +3232,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -3244,40 +3247,40 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
@@ -3289,10 +3292,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
@@ -3304,31 +3307,31 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
       </c>
       <c r="D32" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
         <v>7</v>
       </c>
       <c r="D33" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" s="5"/>
     </row>
@@ -3346,57 +3349,57 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D17:D33)</f>
-        <v>15.3529411764706</v>
+        <v>15.5882352941176</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3">
         <v>4</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
         <v>4</v>
       </c>
       <c r="D40" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
       </c>
       <c r="D41" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3413,26 +3416,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D39:D41)</f>
-        <v>13.6666666666667</v>
+        <v>14.6666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D11,D17:D33,D39:D41)</f>
-        <v>15.2333333333333</v>
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>
@@ -3447,8 +3450,8 @@
   <sheetPr/>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3473,7 +3476,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3482,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3501,7 +3504,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3529,7 +3532,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -3552,12 +3555,12 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -3566,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3580,12 +3583,12 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -3599,7 +3602,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
@@ -3608,12 +3611,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -3622,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3639,37 +3642,37 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D12)</f>
-        <v>17.2727272727273</v>
+        <v>18.4545454545455</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -3680,38 +3683,38 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
@@ -3722,10 +3725,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
@@ -3736,10 +3739,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -3750,10 +3753,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -3764,10 +3767,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -3778,10 +3781,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -3793,25 +3796,25 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -3823,10 +3826,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -3838,40 +3841,40 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2">
         <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
         <v>7</v>
@@ -3895,51 +3898,51 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <f>AVERAGE(D18:D33)</f>
-        <v>16.75</v>
+        <v>17.3125</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
       </c>
       <c r="D39" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
         <v>5</v>
       </c>
       <c r="D40" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" s="3">
         <v>5</v>
@@ -3962,26 +3965,26 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3">
         <f>AVERAGE(D39:D41)</f>
-        <v>14.6666666666667</v>
+        <v>15.6666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4">
         <f>AVERAGE(D2:D12,D18:D33,D39:D41)</f>
-        <v>16.7333333333333</v>
+        <v>17.5666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3996,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4019,10 +4022,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -4030,10 +4033,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -4041,91 +4044,91 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.4285714285714</v>
-      </c>
-      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4136,162 +4139,140 @@
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>17.1666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>17</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C11:C21)</f>
+        <v>17.5454545454545</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C27:C27)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C25:C29)</f>
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C29)</f>
-        <v>17.9444444444444</v>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C5,C11:C21,C27:C27)</f>
+        <v>17.875</v>
       </c>
     </row>
   </sheetData>
@@ -4303,10 +4284,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4329,10 +4310,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -4340,10 +4321,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -4351,18 +4332,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4373,59 +4354,59 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>18.2</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.7142857142857</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
@@ -4435,117 +4416,117 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>17</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2">
-        <v>16</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
+        <v>17.6666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
         <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C12:C22)</f>
-        <v>17.2727272727273</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4556,7 +4537,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4567,13 +4548,19 @@
         <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="3">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3"/>
@@ -4581,27 +4568,32 @@
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C28:C29)</f>
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C6,C12:C22,C28:C29)</f>
-        <v>17.2222222222222</v>
+      <c r="C33" s="3">
+        <f>AVERAGE(C25:C30)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C30)</f>
+        <v>18.2105263157895</v>
       </c>
     </row>
   </sheetData>
@@ -4616,7 +4608,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4639,18 +4631,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4667,51 +4659,51 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4726,42 +4718,42 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>16.5714285714286</v>
+        <v>18.1428571428571</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -4772,29 +4764,29 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2">
         <v>8</v>
@@ -4815,30 +4807,30 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C14:C19)</f>
-        <v>15.8333333333333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -4849,7 +4841,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="3">
         <v>7</v>
@@ -4870,26 +4862,26 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C25:C27)</f>
-        <v>14.3333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C8,C14:C19,C25:C27)</f>
-        <v>15.875</v>
+        <v>17.125</v>
       </c>
     </row>
   </sheetData>
@@ -4904,7 +4896,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4927,40 +4919,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -4971,18 +4963,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -5003,20 +4995,20 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <f>AVERAGE(C2:C7)</f>
-        <v>13.5</v>
+        <v>15.1666666666667</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -5027,18 +5019,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -5049,29 +5041,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -5082,13 +5074,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5103,36 +5095,36 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2">
         <f>AVERAGE(C13:C19)</f>
-        <v>12.5714285714286</v>
+        <v>12.8571428571429</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5147,26 +5139,26 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C25:C26)</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
-        <v>12.9333333333333</v>
+        <v>13.8666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12255" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="15825" windowHeight="11595" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="隐秘" sheetId="7" r:id="rId1"/>
-    <sheet name="帝国" sheetId="5" r:id="rId2"/>
+    <sheet name="帝国" sheetId="5" r:id="rId1"/>
+    <sheet name="隐秘" sheetId="7" r:id="rId2"/>
     <sheet name="蛮石" sheetId="8" r:id="rId3"/>
     <sheet name="禅意" sheetId="6" r:id="rId4"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>名称</t>
   </si>
@@ -41,6 +41,75 @@
     <t>卡等</t>
   </si>
   <si>
+    <t>圣殿斥候</t>
+  </si>
+  <si>
+    <t>天使琼浆</t>
+  </si>
+  <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>田园守望者</t>
+  </si>
+  <si>
+    <t>增援战线</t>
+  </si>
+  <si>
+    <t>光明惩戒</t>
+  </si>
+  <si>
+    <t>小计：</t>
+  </si>
+  <si>
+    <t>蓝色卡等：</t>
+  </si>
+  <si>
+    <t>圣殿御卫</t>
+  </si>
+  <si>
+    <t>边境高墙</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>夺取阵地</t>
+  </si>
+  <si>
+    <t>惩戒天使</t>
+  </si>
+  <si>
+    <t>紫色卡等：</t>
+  </si>
+  <si>
+    <t>曙光·安娜贝尔</t>
+  </si>
+  <si>
+    <t>圣枪·卡罗琳</t>
+  </si>
+  <si>
+    <t>明日之音·露娜</t>
+  </si>
+  <si>
+    <t>帝国军魂·莱哈特</t>
+  </si>
+  <si>
+    <t>正阳大主教·伊恩</t>
+  </si>
+  <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
+    <t>橙色卡等：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>帝国卡等：</t>
+  </si>
+  <si>
     <t>学仆-观测型</t>
   </si>
   <si>
@@ -53,12 +122,6 @@
     <t>全数否定</t>
   </si>
   <si>
-    <t>小计：</t>
-  </si>
-  <si>
-    <t>蓝色卡等：</t>
-  </si>
-  <si>
     <t>隐形术</t>
   </si>
   <si>
@@ -83,78 +146,15 @@
     <t>米拉方舟</t>
   </si>
   <si>
-    <t>紫色卡等：</t>
+    <t>No.4希尔伯特</t>
   </si>
   <si>
     <t>No.2时光·米拉</t>
   </si>
   <si>
-    <t>橙色卡等：</t>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
     <t>隐秘卡等：</t>
   </si>
   <si>
-    <t>圣殿斥候</t>
-  </si>
-  <si>
-    <t>天使琼浆</t>
-  </si>
-  <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
-    <t>田园守望者</t>
-  </si>
-  <si>
-    <t>增援战线</t>
-  </si>
-  <si>
-    <t>光明惩戒</t>
-  </si>
-  <si>
-    <t>圣殿御卫</t>
-  </si>
-  <si>
-    <t>边境高墙</t>
-  </si>
-  <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
-    <t>冲锋装备</t>
-  </si>
-  <si>
-    <t>夺取阵地</t>
-  </si>
-  <si>
-    <t>惩戒天使</t>
-  </si>
-  <si>
-    <t>曙光·安娜贝尔</t>
-  </si>
-  <si>
-    <t>圣枪·卡罗琳</t>
-  </si>
-  <si>
-    <t>明日之音·露娜</t>
-  </si>
-  <si>
-    <t>帝国军魂·莱哈特</t>
-  </si>
-  <si>
-    <t>正阳大主教·伊恩</t>
-  </si>
-  <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
-    <t>帝国卡等：</t>
-  </si>
-  <si>
     <t>愚笨鲸头鹅</t>
   </si>
   <si>
@@ -164,6 +164,9 @@
     <t>势如破竹</t>
   </si>
   <si>
+    <t>高原卫士</t>
+  </si>
+  <si>
     <t>旷野祭师</t>
   </si>
   <si>
@@ -179,13 +182,16 @@
     <t>诱敌草人</t>
   </si>
   <si>
+    <t>活力仙人掌</t>
+  </si>
+  <si>
+    <t>肥鼠晚宴</t>
+  </si>
+  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
-    <t>飞斧女豪</t>
-  </si>
-  <si>
-    <t>贪食白龙</t>
+    <t>石斧头领</t>
   </si>
   <si>
     <t>旷野游侠·大羽</t>
@@ -194,19 +200,25 @@
     <t>血饮烈斧·凯</t>
   </si>
   <si>
-    <t>原野大祭师·鲁玛</t>
-  </si>
-  <si>
     <t>蛮石卡等：</t>
   </si>
   <si>
     <t>长耳庄巧姑</t>
   </si>
   <si>
+    <t>树木之怒</t>
+  </si>
+  <si>
+    <t>锁妖塔守卫</t>
+  </si>
+  <si>
+    <t>飓风术</t>
+  </si>
+  <si>
     <t>连击</t>
   </si>
   <si>
-    <t>执剑道者</t>
+    <t>叶幻师</t>
   </si>
   <si>
     <t>铁山靠</t>
@@ -221,22 +233,16 @@
     <t>蟠桃隐士</t>
   </si>
   <si>
-    <t>驱魔道人</t>
-  </si>
-  <si>
     <t>扫叶僧</t>
   </si>
   <si>
     <t>御风武者</t>
   </si>
   <si>
+    <t>墨轩隐士</t>
+  </si>
+  <si>
     <t>蟠桃会</t>
-  </si>
-  <si>
-    <t>墨轩隐士</t>
-  </si>
-  <si>
-    <t>万物之灵</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -882,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -896,6 +902,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1238,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -1246,10 +1255,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1257,18 +1266,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1278,60 +1287,60 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
       <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>19</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>14</v>
-      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.7142857142857</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
@@ -1341,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1357,95 +1366,95 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2">
-        <v>16</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
-        <v>7</v>
-      </c>
       <c r="C21" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C11:C21)</f>
-        <v>17.5454545454545</v>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
@@ -1455,37 +1464,59 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C27:C27)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C5,C11:C21,C27:C27)</f>
-        <v>17.875</v>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3">
+        <f>AVERAGE(C24:C29)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C8,C14:C18,C24:C29)</f>
+        <v>18.5555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -1497,10 +1528,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1523,10 +1554,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -1534,10 +1565,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1545,18 +1576,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1566,185 +1597,185 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>19.25</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.7142857142857</v>
-      </c>
-      <c r="D11" s="2"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>17.6666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
-        <v>17</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C11:C21)</f>
+        <v>17.8181818181818</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -1754,59 +1785,37 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
-        <v>18</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3">
-        <v>16</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C25:C30)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(C27:C28)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C30)</f>
-        <v>18.2105263157895</v>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C5,C11:C21,C27:C28)</f>
+        <v>17.8235294117647</v>
       </c>
     </row>
   </sheetData>
@@ -1818,10 +1827,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1866,7 +1875,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1877,110 +1886,110 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>18.1428571428571</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>18.3</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2">
         <v>19</v>
@@ -1988,113 +1997,146 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="2">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
+        <f>AVERAGE(C17:C23)</f>
+        <v>17.7142857142857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="3">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
       </c>
       <c r="C30" s="3">
-        <f>AVERAGE(C25:C27)</f>
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C27)</f>
-        <v>17.125</v>
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3">
+        <f>AVERAGE(C29:C30)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="4">
+        <f>AVERAGE(C2:C11,C17:C23,C29:C30)</f>
+        <v>17.7894736842105</v>
       </c>
     </row>
   </sheetData>
@@ -2106,10 +2148,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2132,132 +2174,132 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <f>AVERAGE(C2:C7)</f>
-        <v>15.1666666666667</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>15.4444444444444</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -2265,41 +2307,47 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -2307,43 +2355,43 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2">
-        <f>AVERAGE(C13:C19)</f>
-        <v>12.8571428571429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>15</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C16:C20)</f>
+        <v>14.2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -2351,27 +2399,32 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C25:C26)</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
-        <v>13.8666666666667</v>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C26:C27)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C10,C16:C20,C26:C27)</f>
+        <v>14.875</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="11595" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="16260" windowHeight="8505" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
-    <sheet name="隐秘" sheetId="7" r:id="rId2"/>
-    <sheet name="蛮石" sheetId="8" r:id="rId3"/>
+    <sheet name="蛮石" sheetId="8" r:id="rId2"/>
+    <sheet name="隐秘" sheetId="7" r:id="rId3"/>
     <sheet name="禅意" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>名称</t>
   </si>
@@ -44,6 +44,9 @@
     <t>圣殿斥候</t>
   </si>
   <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
     <t>天使琼浆</t>
   </si>
   <si>
@@ -71,9 +74,6 @@
     <t>边境高墙</t>
   </si>
   <si>
-    <t>圣殿骑士</t>
-  </si>
-  <si>
     <t>夺取阵地</t>
   </si>
   <si>
@@ -98,9 +98,6 @@
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -110,6 +107,45 @@
     <t>帝国卡等：</t>
   </si>
   <si>
+    <t>愚笨鲸头鹅</t>
+  </si>
+  <si>
+    <t>蓄力射手</t>
+  </si>
+  <si>
+    <t>势如破竹</t>
+  </si>
+  <si>
+    <t>高原卫士</t>
+  </si>
+  <si>
+    <t>盘旋秃鹰</t>
+  </si>
+  <si>
+    <t>旷野祭师</t>
+  </si>
+  <si>
+    <t>天降碎石</t>
+  </si>
+  <si>
+    <t>强行捕猎</t>
+  </si>
+  <si>
+    <t>诱敌草人</t>
+  </si>
+  <si>
+    <t>无畏猎户</t>
+  </si>
+  <si>
+    <t>飞斧狂人</t>
+  </si>
+  <si>
+    <t>旷野游侠·大羽</t>
+  </si>
+  <si>
+    <t>蛮石卡等：</t>
+  </si>
+  <si>
     <t>学仆-观测型</t>
   </si>
   <si>
@@ -146,61 +182,10 @@
     <t>米拉方舟</t>
   </si>
   <si>
-    <t>No.4希尔伯特</t>
-  </si>
-  <si>
     <t>No.2时光·米拉</t>
   </si>
   <si>
     <t>隐秘卡等：</t>
-  </si>
-  <si>
-    <t>愚笨鲸头鹅</t>
-  </si>
-  <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
-    <t>高原卫士</t>
-  </si>
-  <si>
-    <t>旷野祭师</t>
-  </si>
-  <si>
-    <t>天降碎石</t>
-  </si>
-  <si>
-    <t>强行捕猎</t>
-  </si>
-  <si>
-    <t>无畏猎户</t>
-  </si>
-  <si>
-    <t>诱敌草人</t>
-  </si>
-  <si>
-    <t>活力仙人掌</t>
-  </si>
-  <si>
-    <t>肥鼠晚宴</t>
-  </si>
-  <si>
-    <t>飞斧狂人</t>
-  </si>
-  <si>
-    <t>石斧头领</t>
-  </si>
-  <si>
-    <t>旷野游侠·大羽</t>
-  </si>
-  <si>
-    <t>血饮烈斧·凯</t>
-  </si>
-  <si>
-    <t>蛮石卡等：</t>
   </si>
   <si>
     <t>长耳庄巧姑</t>
@@ -888,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,9 +887,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1218,10 +1200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1280,7 +1262,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1313,52 +1295,52 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.7142857142857</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20</v>
-      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>19.75</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1372,7 +1354,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1383,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1409,14 +1391,14 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="2">
-        <f>AVERAGE(C14:C18)</f>
-        <v>18.2</v>
+        <f>AVERAGE(C15:C18)</f>
+        <v>18.75</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1427,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1449,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1460,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1475,15 +1457,9 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>16</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3"/>
@@ -1491,32 +1467,27 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(C24:C28)</f>
+        <v>18.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C24:C29)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C8,C14:C18,C24:C29)</f>
-        <v>18.5555555555556</v>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C9,C15:C18,C24:C28)</f>
+        <v>19.1176470588235</v>
       </c>
     </row>
   </sheetData>
@@ -1528,10 +1499,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1554,18 +1525,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1576,132 +1547,132 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>19.25</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>20</v>
-      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1">
+        <f>AVERAGE(C2:C12)</f>
+        <v>18.9090909090909</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -1709,35 +1680,35 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1752,37 +1723,31 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <f>AVERAGE(C11:C21)</f>
-        <v>17.8181818181818</v>
+        <f>AVERAGE(C18:C21)</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>17</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
@@ -1790,32 +1755,27 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C27:C27)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C27:C28)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C5,C11:C21,C27:C28)</f>
-        <v>17.8235294117647</v>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C12,C18:C21,C27:C27)</f>
+        <v>18.9375</v>
       </c>
     </row>
   </sheetData>
@@ -1827,10 +1787,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1853,18 +1813,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1875,191 +1835,185 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>17.8</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>18.3</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2">
-        <v>19</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
@@ -2067,76 +2021,60 @@
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="2">
-        <f>AVERAGE(C17:C23)</f>
-        <v>17.7142857142857</v>
+      <c r="C25" s="2">
+        <f>AVERAGE(C12:C22)</f>
+        <v>18.0909090909091</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="3">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>17</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3">
-        <v>14</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="3">
+        <f>AVERAGE(C28:C28)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="3">
-        <f>AVERAGE(C29:C30)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="4">
-        <f>AVERAGE(C2:C11,C17:C23,C29:C30)</f>
-        <v>17.7894736842105</v>
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C6,C12:C22,C28:C28)</f>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2150,8 +2088,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2174,7 +2112,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2185,7 +2123,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2196,7 +2134,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2207,7 +2145,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2218,7 +2156,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2229,7 +2167,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2240,7 +2178,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2251,7 +2189,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -2262,7 +2200,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -2283,10 +2221,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
         <f>AVERAGE(C2:C10)</f>
@@ -2296,7 +2234,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -2307,7 +2245,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -2318,7 +2256,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2329,7 +2267,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2340,7 +2278,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -2361,7 +2299,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -2373,7 +2311,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
@@ -2384,7 +2322,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -2405,10 +2343,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C26:C27)</f>
@@ -2417,10 +2355,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C10,C16:C20,C26:C27)</f>

--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="8505" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="15375" windowHeight="10515" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -98,6 +98,9 @@
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -119,12 +122,12 @@
     <t>高原卫士</t>
   </si>
   <si>
-    <t>盘旋秃鹰</t>
-  </si>
-  <si>
     <t>旷野祭师</t>
   </si>
   <si>
+    <t>机敏雀鹰</t>
+  </si>
+  <si>
     <t>天降碎石</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
     <t>旷野游侠·大羽</t>
   </si>
   <si>
+    <t>血饮烈斧·凯</t>
+  </si>
+  <si>
     <t>蛮石卡等：</t>
   </si>
   <si>
@@ -188,15 +194,9 @@
     <t>隐秘卡等：</t>
   </si>
   <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
     <t>树木之怒</t>
   </si>
   <si>
-    <t>锁妖塔守卫</t>
-  </si>
-  <si>
     <t>飓风术</t>
   </si>
   <si>
@@ -209,18 +209,12 @@
     <t>铁山靠</t>
   </si>
   <si>
-    <t>风铃道人</t>
-  </si>
-  <si>
     <t>风卷残云</t>
   </si>
   <si>
     <t>蟠桃隐士</t>
   </si>
   <si>
-    <t>扫叶僧</t>
-  </si>
-  <si>
     <t>御风武者</t>
   </si>
   <si>
@@ -230,10 +224,16 @@
     <t>蟠桃会</t>
   </si>
   <si>
+    <t>泰山之力</t>
+  </si>
+  <si>
     <t>神机玄女·轩</t>
   </si>
   <si>
     <t>悟能禅杖</t>
+  </si>
+  <si>
+    <t>长生不老树</t>
   </si>
   <si>
     <t>禅意卡等：</t>
@@ -1200,10 +1200,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1420,7 +1420,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1442,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1457,9 +1457,15 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3"/>
@@ -1467,27 +1473,32 @@
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C24:C28)</f>
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C32" s="3">
+        <f>AVERAGE(C24:C29)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C9,C15:C18,C24:C28)</f>
-        <v>19.1176470588235</v>
+      <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="4">
+        <f>AVERAGE(C2:C9,C15:C18,C24:C29)</f>
+        <v>19.1111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -1499,10 +1510,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1525,18 +1536,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1547,7 +1558,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1558,7 +1569,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1569,7 +1580,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1580,7 +1591,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -1591,7 +1602,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -1608,23 +1619,23 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -1635,7 +1646,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
@@ -1663,13 +1674,13 @@
       </c>
       <c r="C15" s="1">
         <f>AVERAGE(C2:C12)</f>
-        <v>18.9090909090909</v>
+        <v>19.0909090909091</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1680,7 +1691,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
@@ -1691,7 +1702,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -1702,7 +1713,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
@@ -1735,7 +1746,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -1745,9 +1756,15 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
@@ -1755,27 +1772,32 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C27:C27)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C12,C18:C21,C27:C27)</f>
-        <v>18.9375</v>
+      <c r="C31" s="3">
+        <f>AVERAGE(C27:C28)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="4">
+        <f>AVERAGE(C2:C12,C18:C21,C27:C28)</f>
+        <v>18.8235294117647</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +1809,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1813,7 +1835,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1824,7 +1846,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1835,7 +1857,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1846,74 +1868,74 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>17.8</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>19.25</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1924,18 +1946,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1946,7 +1968,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1957,10 +1979,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -1968,7 +1990,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -1979,36 +2001,30 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2">
-        <v>20</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
@@ -2016,32 +2032,32 @@
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="2">
-        <f>AVERAGE(C12:C22)</f>
-        <v>18.0909090909091</v>
+      <c r="C24" s="2">
+        <f>AVERAGE(C11:C21)</f>
+        <v>18.1818181818182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>18</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3"/>
@@ -2049,32 +2065,27 @@
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
+      <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C28:C28)</f>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3">
+        <f>AVERAGE(C27:C27)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C6,C12:C22,C28:C28)</f>
-        <v>18</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C5,C11:C21,C27:C27)</f>
+        <v>18.4375</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2097,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2112,43 +2123,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>13</v>
@@ -2156,18 +2167,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2178,66 +2189,66 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>14.8571428571429</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="C15" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>15.4444444444444</v>
-      </c>
-      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -2245,91 +2256,85 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
+        <f>AVERAGE(C14:C18)</f>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="C24" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C16:C20)</f>
-        <v>14.2</v>
+      <c r="C25" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="3">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>13</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -2337,32 +2342,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
+      <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C26:C27)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C29" s="3">
+        <f>AVERAGE(C24:C26)</f>
+        <v>13.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C10,C16:C20,C26:C27)</f>
-        <v>14.875</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
+        <v>14.2666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15375" windowHeight="10515" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="15765" windowHeight="9240" firstSheet="2" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>名称</t>
   </si>
@@ -44,9 +44,6 @@
     <t>圣殿斥候</t>
   </si>
   <si>
-    <t>圣殿卫士</t>
-  </si>
-  <si>
     <t>天使琼浆</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -116,28 +110,28 @@
     <t>蓄力射手</t>
   </si>
   <si>
+    <t>旷野祭师</t>
+  </si>
+  <si>
     <t>势如破竹</t>
   </si>
   <si>
     <t>高原卫士</t>
   </si>
   <si>
-    <t>旷野祭师</t>
-  </si>
-  <si>
-    <t>机敏雀鹰</t>
-  </si>
-  <si>
     <t>天降碎石</t>
   </si>
   <si>
     <t>强行捕猎</t>
   </si>
   <si>
+    <t>无畏猎户</t>
+  </si>
+  <si>
     <t>诱敌草人</t>
   </si>
   <si>
-    <t>无畏猎户</t>
+    <t>肥鼠晚宴</t>
   </si>
   <si>
     <t>飞斧狂人</t>
@@ -194,6 +188,9 @@
     <t>隐秘卡等：</t>
   </si>
   <si>
+    <t>长耳庄巧姑</t>
+  </si>
+  <si>
     <t>树木之怒</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
   </si>
   <si>
     <t>连击</t>
-  </si>
-  <si>
-    <t>叶幻师</t>
   </si>
   <si>
     <t>铁山靠</t>
@@ -1200,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1262,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>20</v>
@@ -1295,52 +1289,52 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>18</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.7142857142857</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>19.75</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1351,10 +1345,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1362,22 +1356,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
-        <v>18</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
@@ -1385,20 +1373,26 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2">
+        <f>AVERAGE(C14:C17)</f>
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C15:C18)</f>
-        <v>18.75</v>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1406,10 +1400,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1420,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1428,10 +1422,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1439,66 +1433,44 @@
         <v>20</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
+      <c r="C30" s="3">
+        <f>AVERAGE(C23:C27)</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="3">
-        <f>AVERAGE(C24:C29)</f>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="4">
-        <f>AVERAGE(C2:C9,C15:C18,C24:C29)</f>
-        <v>19.1111111111111</v>
+      <c r="C33" s="4">
+        <f>AVERAGE(C2:C8,C14:C17,C23:C27)</f>
+        <v>19.4375</v>
       </c>
     </row>
   </sheetData>
@@ -1512,8 +1484,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1536,7 +1508,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1547,7 +1519,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1558,7 +1530,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1569,7 +1541,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1580,18 +1552,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -1602,29 +1574,29 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1635,52 +1607,52 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1">
-        <v>17</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
-        <f>AVERAGE(C2:C12)</f>
-        <v>19.0909090909091</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>19.8</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
@@ -1691,18 +1663,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
@@ -1713,13 +1685,13 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1734,19 +1706,19 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
-        <f>AVERAGE(C18:C21)</f>
-        <v>19.5</v>
+        <f>AVERAGE(C17:C21)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
@@ -1757,7 +1729,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
@@ -1778,10 +1750,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(C27:C28)</f>
@@ -1790,14 +1762,14 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4">
-        <f>AVERAGE(C2:C12,C18:C21,C27:C28)</f>
-        <v>18.8235294117647</v>
+        <f>AVERAGE(C2:C11,C17:C21,C27:C28)</f>
+        <v>19.4117647058824</v>
       </c>
     </row>
   </sheetData>
@@ -1811,8 +1783,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1835,7 +1807,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1846,7 +1818,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1857,7 +1829,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -1868,7 +1840,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1889,10 +1861,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
@@ -1902,18 +1874,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1924,18 +1896,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1946,7 +1918,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -1957,7 +1929,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1968,7 +1940,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1979,7 +1951,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1990,7 +1962,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -2001,18 +1973,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
       </c>
       <c r="C20" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2">
         <v>7</v>
@@ -2033,19 +2005,19 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C11:C21)</f>
-        <v>18.1818181818182</v>
+        <v>18.4545454545455</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
@@ -2066,10 +2038,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C27:C27)</f>
@@ -2078,14 +2050,14 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="4">
         <f>AVERAGE(C2:C5,C11:C21,C27:C27)</f>
-        <v>18.4375</v>
+        <v>18.625</v>
       </c>
     </row>
   </sheetData>
@@ -2099,8 +2071,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2123,62 +2095,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -2189,7 +2161,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -2210,20 +2182,20 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C11" s="1">
         <f>AVERAGE(C2:C8)</f>
-        <v>14.8571428571429</v>
+        <v>15.4285714285714</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -2234,7 +2206,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2">
         <v>4</v>
@@ -2245,7 +2217,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -2256,7 +2228,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -2267,7 +2239,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -2288,10 +2260,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2">
         <f>AVERAGE(C14:C18)</f>
@@ -2300,7 +2272,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -2311,7 +2283,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
@@ -2322,7 +2294,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -2343,10 +2315,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
@@ -2355,14 +2327,14 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="4">
         <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
-        <v>14.2666666666667</v>
+        <v>14.5333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15765" windowHeight="9240" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="12345" windowHeight="9540" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -47,15 +47,9 @@
     <t>天使琼浆</t>
   </si>
   <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
     <t>田园守望者</t>
   </si>
   <si>
-    <t>增援战线</t>
-  </si>
-  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -74,6 +68,9 @@
     <t>夺取阵地</t>
   </si>
   <si>
+    <t>禁卫指挥官</t>
+  </si>
+  <si>
     <t>惩戒天使</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
+    <t>钢铁统帅·雷蒙德</t>
+  </si>
+  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -107,18 +107,12 @@
     <t>愚笨鲸头鹅</t>
   </si>
   <si>
-    <t>蓄力射手</t>
-  </si>
-  <si>
     <t>旷野祭师</t>
   </si>
   <si>
     <t>势如破竹</t>
   </si>
   <si>
-    <t>高原卫士</t>
-  </si>
-  <si>
     <t>天降碎石</t>
   </si>
   <si>
@@ -137,21 +131,24 @@
     <t>飞斧狂人</t>
   </si>
   <si>
+    <t>贪食白龙</t>
+  </si>
+  <si>
     <t>旷野游侠·大羽</t>
   </si>
   <si>
     <t>血饮烈斧·凯</t>
   </si>
   <si>
+    <t>原野大祭师·鲁玛</t>
+  </si>
+  <si>
     <t>蛮石卡等：</t>
   </si>
   <si>
     <t>学仆-观测型</t>
   </si>
   <si>
-    <t>方尖魔碑</t>
-  </si>
-  <si>
     <t>沉重否定</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
     <t>米拉方舟</t>
   </si>
   <si>
+    <t>鬼童-7号</t>
+  </si>
+  <si>
     <t>No.2时光·米拉</t>
   </si>
   <si>
@@ -191,12 +191,15 @@
     <t>长耳庄巧姑</t>
   </si>
   <si>
-    <t>树木之怒</t>
+    <t>白羊药师</t>
   </si>
   <si>
     <t>飓风术</t>
   </si>
   <si>
+    <t>太极剑法</t>
+  </si>
+  <si>
     <t>连击</t>
   </si>
   <si>
@@ -206,9 +209,6 @@
     <t>风卷残云</t>
   </si>
   <si>
-    <t>蟠桃隐士</t>
-  </si>
-  <si>
     <t>御风武者</t>
   </si>
   <si>
@@ -218,7 +218,7 @@
     <t>蟠桃会</t>
   </si>
   <si>
-    <t>泰山之力</t>
+    <t>拔地而起</t>
   </si>
   <si>
     <t>神机玄女·轩</t>
@@ -1196,8 +1196,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1267,66 +1267,66 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>20</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.7142857142857</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1334,7 +1334,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1345,22 +1345,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>19</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
@@ -1368,20 +1362,26 @@
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <f>AVERAGE(C12:C16)</f>
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2">
-        <f>AVERAGE(C14:C17)</f>
-        <v>19.25</v>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1389,10 +1389,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1403,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1411,10 +1411,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1422,7 +1422,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
         <v>20</v>
@@ -1433,10 +1433,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1451,14 +1451,14 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="3">
-        <f>AVERAGE(C23:C27)</f>
-        <v>19.2</v>
+        <f>AVERAGE(C22:C27)</f>
+        <v>19.1666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1469,8 +1469,8 @@
         <v>23</v>
       </c>
       <c r="C33" s="4">
-        <f>AVERAGE(C2:C8,C14:C17,C23:C27)</f>
-        <v>19.4375</v>
+        <f>AVERAGE(C2:C6,C12:C16,C22:C27)</f>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>
@@ -1484,8 +1484,8 @@
   <sheetPr/>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1566,7 +1566,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
@@ -1577,10 +1577,10 @@
         <v>27</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1588,63 +1588,63 @@
         <v>28</v>
       </c>
       <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>20</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>19.8</v>
-      </c>
-      <c r="D14" s="2"/>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -1655,7 +1655,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <v>20</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>20</v>
@@ -1674,25 +1674,19 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
@@ -1700,20 +1694,26 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C17:C21)</f>
-        <v>20</v>
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C15:C20)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1721,10 +1721,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1732,10 +1732,10 @@
         <v>36</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1750,14 +1750,14 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="3">
-        <f>AVERAGE(C27:C28)</f>
-        <v>16</v>
+        <f>AVERAGE(C26:C28)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1768,8 +1768,8 @@
         <v>37</v>
       </c>
       <c r="C34" s="4">
-        <f>AVERAGE(C2:C11,C17:C21,C27:C28)</f>
-        <v>19.4117647058824</v>
+        <f>AVERAGE(C2:C9,C15:C20,C26:C28)</f>
+        <v>19.4705882352941</v>
       </c>
     </row>
   </sheetData>
@@ -1783,8 +1783,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1824,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1832,55 +1832,55 @@
         <v>40</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <f>AVERAGE(C2:C5)</f>
-        <v>19.25</v>
-      </c>
-      <c r="D8" s="2"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>19.6666666666667</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1891,18 +1891,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1910,15 +1910,15 @@
         <v>44</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1943,7 +1943,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
@@ -1965,10 +1965,10 @@
         <v>47</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1976,22 +1976,16 @@
         <v>48</v>
       </c>
       <c r="B20" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2"/>
@@ -1999,20 +1993,26 @@
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <f>AVERAGE(C11:C21)</f>
-        <v>18.4545454545455</v>
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <f>AVERAGE(C10:C20)</f>
+        <v>18.5454545454545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2038,14 +2038,14 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C30" s="3">
-        <f>AVERAGE(C27:C27)</f>
-        <v>18</v>
+        <f>AVERAGE(C26:C27)</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2056,8 +2056,8 @@
         <v>51</v>
       </c>
       <c r="C33" s="4">
-        <f>AVERAGE(C2:C5,C11:C21,C27:C27)</f>
-        <v>18.625</v>
+        <f>AVERAGE(C2:C4,C10:C20,C26:C27)</f>
+        <v>18.875</v>
       </c>
     </row>
   </sheetData>
@@ -2071,8 +2071,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2101,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2112,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2131,21 +2131,21 @@
         <v>55</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2164,45 +2164,45 @@
         <v>57</v>
       </c>
       <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>15.4285714285714</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>14</v>
-      </c>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <f>AVERAGE(C2:C9)</f>
+        <v>16.25</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2234,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2242,10 +2242,10 @@
         <v>62</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2260,14 +2260,14 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2">
-        <f>AVERAGE(C14:C18)</f>
-        <v>13.8</v>
+        <f>AVERAGE(C15:C18)</f>
+        <v>14.75</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2315,14 +2315,14 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(C24:C26)</f>
-        <v>13.6666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2333,8 +2333,8 @@
         <v>66</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C8,C14:C18,C24:C26)</f>
-        <v>14.5333333333333</v>
+        <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12345" windowHeight="9540" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="10725" windowHeight="11385" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>名称</t>
   </si>
@@ -50,6 +50,12 @@
     <t>田园守望者</t>
   </si>
   <si>
+    <t>圣殿弩手</t>
+  </si>
+  <si>
+    <t>增援战线</t>
+  </si>
+  <si>
     <t>光明惩戒</t>
   </si>
   <si>
@@ -59,18 +65,18 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
+    <t>四芒军旗</t>
+  </si>
+  <si>
     <t>圣殿御卫</t>
   </si>
   <si>
-    <t>边境高墙</t>
+    <t>召集护卫</t>
   </si>
   <si>
     <t>夺取阵地</t>
   </si>
   <si>
-    <t>禁卫指挥官</t>
-  </si>
-  <si>
     <t>惩戒天使</t>
   </si>
   <si>
@@ -107,13 +113,16 @@
     <t>愚笨鲸头鹅</t>
   </si>
   <si>
+    <t>蓄力射手</t>
+  </si>
+  <si>
+    <t>势如破竹</t>
+  </si>
+  <si>
     <t>旷野祭师</t>
   </si>
   <si>
-    <t>势如破竹</t>
-  </si>
-  <si>
-    <t>天降碎石</t>
+    <t>旷野猎手</t>
   </si>
   <si>
     <t>强行捕猎</t>
@@ -128,6 +137,9 @@
     <t>肥鼠晚宴</t>
   </si>
   <si>
+    <t>活力仙人掌</t>
+  </si>
+  <si>
     <t>飞斧狂人</t>
   </si>
   <si>
@@ -140,9 +152,6 @@
     <t>血饮烈斧·凯</t>
   </si>
   <si>
-    <t>原野大祭师·鲁玛</t>
-  </si>
-  <si>
     <t>蛮石卡等：</t>
   </si>
   <si>
@@ -167,19 +176,19 @@
     <t>学仆-脉冲型</t>
   </si>
   <si>
+    <t>学仆-塑钢型</t>
+  </si>
+  <si>
     <t>幻域秘树</t>
   </si>
   <si>
-    <t>学仆-塑钢型</t>
-  </si>
-  <si>
     <t>观星台大预言家</t>
   </si>
   <si>
     <t>米拉方舟</t>
   </si>
   <si>
-    <t>鬼童-7号</t>
+    <t>No.4希尔伯特</t>
   </si>
   <si>
     <t>No.2时光·米拉</t>
@@ -188,12 +197,6 @@
     <t>隐秘卡等：</t>
   </si>
   <si>
-    <t>长耳庄巧姑</t>
-  </si>
-  <si>
-    <t>白羊药师</t>
-  </si>
-  <si>
     <t>飓风术</t>
   </si>
   <si>
@@ -206,28 +209,16 @@
     <t>铁山靠</t>
   </si>
   <si>
-    <t>风卷残云</t>
-  </si>
-  <si>
-    <t>御风武者</t>
+    <t>蟠桃会</t>
   </si>
   <si>
     <t>墨轩隐士</t>
   </si>
   <si>
-    <t>蟠桃会</t>
-  </si>
-  <si>
-    <t>拔地而起</t>
-  </si>
-  <si>
     <t>神机玄女·轩</t>
   </si>
   <si>
     <t>悟能禅杖</t>
-  </si>
-  <si>
-    <t>长生不老树</t>
   </si>
   <si>
     <t>禅意卡等：</t>
@@ -1194,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1226,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1237,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1248,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1259,218 +1250,273 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
       <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>20</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20</v>
-      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>21</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
       <c r="C19" s="2">
-        <f>AVERAGE(C12:C16)</f>
-        <v>19.4</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3">
-        <v>20</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="3">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3">
-        <v>20</v>
+      <c r="C24" s="2">
+        <f>AVERAGE(C16:C21)</f>
+        <v>18.3333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>22</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C22:C27)</f>
-        <v>19.1666666666667</v>
+      <c r="B31" s="3">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C6,C12:C16,C22:C27)</f>
-        <v>19.5</v>
+      <c r="C35" s="3">
+        <f>AVERAGE(C27:C32)</f>
+        <v>19.8333333333333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="4">
+        <f>AVERAGE(C2:C10,C16:C21,C27:C32)</f>
+        <v>19.9047619047619</v>
       </c>
     </row>
   </sheetData>
@@ -1482,10 +1528,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1508,40 +1554,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1552,7 +1598,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1563,63 +1609,63 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>20</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <f>AVERAGE(C2:C8)</f>
+        <v>19.8571428571429</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
         <v>20</v>
       </c>
-      <c r="D12" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1630,10 +1676,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -1641,47 +1687,41 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
-        <v>20</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
@@ -1689,87 +1729,71 @@
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C15:C20)</f>
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C14:C19)</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>16</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="3">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3">
-        <v>18</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="3">
-        <f>AVERAGE(C26:C28)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4">
-        <f>AVERAGE(C2:C9,C15:C20,C26:C28)</f>
-        <v>19.4705882352941</v>
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
+        <v>19.6</v>
       </c>
     </row>
   </sheetData>
@@ -1783,8 +1807,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1807,151 +1831,151 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(C2:C4)</f>
-        <v>19.6666666666667</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>16</v>
-      </c>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <f>AVERAGE(C2:C5)</f>
+        <v>18.75</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1962,7 +1986,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -1973,13 +1997,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1994,30 +2018,30 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2">
-        <f>AVERAGE(C10:C20)</f>
-        <v>18.5454545454545</v>
+        <f>AVERAGE(C11:C20)</f>
+        <v>19.4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
@@ -2038,26 +2062,26 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(C26:C27)</f>
-        <v>19.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C33" s="4">
-        <f>AVERAGE(C2:C4,C10:C20,C26:C27)</f>
-        <v>18.875</v>
+        <f>AVERAGE(C2:C5,C11:C20,C26:C27)</f>
+        <v>18.9375</v>
       </c>
     </row>
   </sheetData>
@@ -2069,10 +2093,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2095,246 +2119,180 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <f>AVERAGE(C2:C6)</f>
+        <v>14.8</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C9)</f>
-        <v>16.25</v>
-      </c>
-      <c r="D12" s="2"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>15</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <f>AVERAGE(C12:C13)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="C19" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3">
         <v>4</v>
       </c>
-      <c r="C17" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="2">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="C20" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2">
-        <f>AVERAGE(C15:C18)</f>
-        <v>14.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3">
+        <f>AVERAGE(C19:C20)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3">
-        <f>AVERAGE(C24:C26)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="4">
-        <f>AVERAGE(C2:C9,C15:C18,C24:C26)</f>
-        <v>15.4</v>
+      <c r="C26" s="4">
+        <f>AVERAGE(C2:C6,C12:C13,C19:C20)</f>
+        <v>15.1111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
+++ b/src/utils/sxsyzlzq/friends/hezhongshan/zz_jiaozhu_level.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10725" windowHeight="11385" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="12795" windowHeight="11025" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="帝国" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>名称</t>
   </si>
@@ -44,15 +44,18 @@
     <t>圣殿斥候</t>
   </si>
   <si>
+    <t>圣殿卫士</t>
+  </si>
+  <si>
     <t>天使琼浆</t>
   </si>
   <si>
+    <t>炫目神光</t>
+  </si>
+  <si>
     <t>田园守望者</t>
   </si>
   <si>
-    <t>圣殿弩手</t>
-  </si>
-  <si>
     <t>增援战线</t>
   </si>
   <si>
@@ -65,7 +68,7 @@
     <t>蓝色卡等：</t>
   </si>
   <si>
-    <t>四芒军旗</t>
+    <t>传记·钢铁守卫</t>
   </si>
   <si>
     <t>圣殿御卫</t>
@@ -98,9 +101,6 @@
     <t>正阳大主教·伊恩</t>
   </si>
   <si>
-    <t>钢铁统帅·雷蒙德</t>
-  </si>
-  <si>
     <t>橙色卡等：</t>
   </si>
   <si>
@@ -122,9 +122,6 @@
     <t>旷野祭师</t>
   </si>
   <si>
-    <t>旷野猎手</t>
-  </si>
-  <si>
     <t>强行捕猎</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>米拉方舟</t>
   </si>
   <si>
-    <t>No.4希尔伯特</t>
-  </si>
-  <si>
     <t>No.2时光·米拉</t>
   </si>
   <si>
@@ -200,13 +194,16 @@
     <t>飓风术</t>
   </si>
   <si>
-    <t>太极剑法</t>
+    <t>长耳庄巧姑</t>
   </si>
   <si>
     <t>连击</t>
   </si>
   <si>
-    <t>铁山靠</t>
+    <t>风卷残云</t>
+  </si>
+  <si>
+    <t>风铃道人</t>
   </si>
   <si>
     <t>蟠桃会</t>
@@ -1185,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1236,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>22</v>
@@ -1244,10 +1241,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>22</v>
@@ -1255,18 +1252,18 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1291,66 +1288,66 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>5</v>
       </c>
       <c r="C10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
-        <f>AVERAGE(C2:C10)</f>
-        <v>21</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>17</v>
-      </c>
+      <c r="C14" s="1">
+        <f>AVERAGE(C2:C11)</f>
+        <v>21.4</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1358,7 +1355,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <v>22</v>
@@ -1372,29 +1369,29 @@
         <v>4</v>
       </c>
       <c r="C19" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
         <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1409,30 +1406,30 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2">
-        <f>AVERAGE(C16:C21)</f>
-        <v>18.3333333333333</v>
+        <f>AVERAGE(C17:C21)</f>
+        <v>20.4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3">
         <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3">
         <v>4</v>
@@ -1443,47 +1440,41 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3">
         <v>4</v>
       </c>
       <c r="C29" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3">
         <v>5</v>
       </c>
       <c r="C30" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3">
         <v>6</v>
       </c>
       <c r="C31" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3">
-        <v>18</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3"/>
@@ -1491,32 +1482,27 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="3">
-        <f>AVERAGE(C27:C32)</f>
-        <v>19.8333333333333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4" t="s">
+      <c r="C34" s="3">
+        <f>AVERAGE(C27:C31)</f>
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="4">
-        <f>AVERAGE(C2:C10,C16:C21,C27:C32)</f>
-        <v>19.9047619047619</v>
+      <c r="C37" s="4">
+        <f>AVERAGE(C2:C11,C17:C21,C27:C31)</f>
+        <v>21.1</v>
       </c>
     </row>
   </sheetData>
@@ -1530,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1560,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1593,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1612,45 +1598,45 @@
         <v>30</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>19</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <f>AVERAGE(C2:C8)</f>
-        <v>19.8571428571429</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <f>AVERAGE(C2:C7)</f>
+        <v>21.1666666666667</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
@@ -1660,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1668,7 +1654,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1676,7 +1662,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1687,7 +1673,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
@@ -1698,7 +1684,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1709,13 +1695,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2">
         <v>8</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1730,19 +1716,19 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
-        <f>AVERAGE(C14:C19)</f>
-        <v>20</v>
+        <f>AVERAGE(C13:C19)</f>
+        <v>20.1428571428571</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -1753,7 +1739,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
@@ -1774,7 +1760,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>23</v>
@@ -1789,11 +1775,11 @@
         <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4">
-        <f>AVERAGE(C2:C8,C14:C19,C25:C26)</f>
-        <v>19.6</v>
+        <f>AVERAGE(C2:C7,C13:C19,C25:C26)</f>
+        <v>20.2</v>
       </c>
     </row>
   </sheetData>
@@ -1805,10 +1791,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1831,7 +1817,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1842,7 +1828,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1853,18 +1839,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1885,20 +1871,20 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <f>AVERAGE(C2:C5)</f>
-        <v>18.75</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1909,7 +1895,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -1920,18 +1906,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1942,7 +1928,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
@@ -1953,7 +1939,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
@@ -1964,7 +1950,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
@@ -1975,29 +1961,29 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>7</v>
@@ -2018,37 +2004,31 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2">
         <f>AVERAGE(C11:C20)</f>
-        <v>19.4</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>19</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3"/>
@@ -2056,32 +2036,27 @@
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="3">
-        <f>AVERAGE(C26:C27)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4" t="s">
+      <c r="C29" s="3">
+        <f>AVERAGE(C26:C26)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="4">
-        <f>AVERAGE(C2:C5,C11:C20,C26:C27)</f>
-        <v>18.9375</v>
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C5,C11:C20,C26:C26)</f>
+        <v>19.6</v>
       </c>
     </row>
   </sheetData>
@@ -2093,10 +2068,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2119,180 +2094,246 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <f>AVERAGE(C2:C6)</f>
-        <v>14.8</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <f>AVERAGE(C2:C10)</f>
+        <v>13.1111111111111</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2">
+        <f>AVERAGE(C16:C19)</f>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <f>AVERAGE(C25:C26)</f>
         <v>16</v>
       </c>
-      <c r="C16" s="2">
-        <f>AVERAGE(C12:C13)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="3">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="3">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3">
-        <f>AVERAGE(C19:C20)</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="4">
-        <f>AVERAGE(C2:C6,C12:C13,C19:C20)</f>
-        <v>15.1111111111111</v>
+      <c r="C32" s="4">
+        <f>AVERAGE(C2:C10,C16:C19,C25:C26)</f>
+        <v>13.5333333333333</v>
       </c>
     </row>
   </sheetData>
